--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -49,15 +49,15 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -82,123 +82,117 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>consumer</t>
   </si>
   <si>
@@ -209,6 +203,12 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
         <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,19 +653,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7294520547945206</v>
+        <v>0.7431506849315068</v>
       </c>
       <c r="C5">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D5">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -785,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5098039215686274</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C6">
         <v>26</v>
@@ -803,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4697986577181208</v>
+        <v>0.4563106796116505</v>
       </c>
       <c r="C7">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="D7">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,22 +850,22 @@
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K7">
-        <v>0.8414634146341463</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L7">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4612403100775194</v>
+        <v>0.4161073825503356</v>
       </c>
       <c r="C8">
-        <v>238</v>
+        <v>62</v>
       </c>
       <c r="D8">
-        <v>238</v>
+        <v>62</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>278</v>
+        <v>87</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8380281690140845</v>
+        <v>0.8203125</v>
       </c>
       <c r="L8">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="M8">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -935,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3733333333333334</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8297872340425532</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3544973544973545</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C10">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D10">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8207547169811321</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="L10">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="M10">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1059,13 +1059,13 @@
         <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2619047619047619</v>
+        <v>0.257936507936508</v>
       </c>
       <c r="C12">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>31</v>
@@ -1135,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1474530831099196</v>
+        <v>0.1581769436997319</v>
       </c>
       <c r="C13">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D13">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,37 +1185,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0117096018735363</v>
+        <v>0.008322237017310254</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="E14">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="F14">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>2954</v>
+        <v>2979</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K14">
-        <v>0.7833333333333333</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L14">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="M14">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,37 +1235,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008931419457735247</v>
+        <v>0.007994883274704189</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E15">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F15">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>3107</v>
+        <v>3102</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.73125</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,13 +1285,13 @@
         <v>35</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1311,13 +1311,13 @@
         <v>36</v>
       </c>
       <c r="K17">
-        <v>0.71875</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L17">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1337,13 +1337,13 @@
         <v>37</v>
       </c>
       <c r="K18">
-        <v>0.7058823529411765</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1363,13 +1363,13 @@
         <v>38</v>
       </c>
       <c r="K19">
-        <v>0.6808510638297872</v>
+        <v>0.68</v>
       </c>
       <c r="L19">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1389,13 +1389,13 @@
         <v>39</v>
       </c>
       <c r="K20">
-        <v>0.6710182767624021</v>
+        <v>0.6449086161879896</v>
       </c>
       <c r="L20">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="M20">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1415,13 +1415,13 @@
         <v>40</v>
       </c>
       <c r="K21">
-        <v>0.6458333333333334</v>
+        <v>0.5970588235294118</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1441,13 +1441,13 @@
         <v>41</v>
       </c>
       <c r="K22">
-        <v>0.6046511627906976</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1467,13 +1467,13 @@
         <v>42</v>
       </c>
       <c r="K23">
-        <v>0.5970588235294118</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L23">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="M23">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>137</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1493,13 +1493,13 @@
         <v>43</v>
       </c>
       <c r="K24">
-        <v>0.5600000000000001</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1519,13 +1519,13 @@
         <v>44</v>
       </c>
       <c r="K25">
-        <v>0.5423728813559322</v>
+        <v>0.5491525423728814</v>
       </c>
       <c r="L25">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M25">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1548,10 +1548,10 @@
         <v>0.5384615384615384</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1597,13 +1597,13 @@
         <v>47</v>
       </c>
       <c r="K28">
-        <v>0.5128205128205128</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L28">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1623,13 +1623,13 @@
         <v>48</v>
       </c>
       <c r="K29">
-        <v>0.5056179775280899</v>
+        <v>0.421875</v>
       </c>
       <c r="L29">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1649,13 +1649,13 @@
         <v>49</v>
       </c>
       <c r="K30">
-        <v>0.4520547945205479</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L30">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1675,13 +1675,13 @@
         <v>50</v>
       </c>
       <c r="K31">
-        <v>0.4285714285714285</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1701,13 +1701,13 @@
         <v>51</v>
       </c>
       <c r="K32">
-        <v>0.390625</v>
+        <v>0.2125984251968504</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1727,25 +1727,25 @@
         <v>52</v>
       </c>
       <c r="K33">
-        <v>0.2186046511627907</v>
+        <v>0.1966426858513189</v>
       </c>
       <c r="L33">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="M33">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>168</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1753,13 +1753,13 @@
         <v>53</v>
       </c>
       <c r="K34">
-        <v>0.2105263157894737</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="L34">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="M34">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1779,13 +1779,13 @@
         <v>54</v>
       </c>
       <c r="K35">
-        <v>0.2047244094488189</v>
+        <v>0.1488372093023256</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>101</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1805,25 +1805,25 @@
         <v>55</v>
       </c>
       <c r="K36">
-        <v>0.1984732824427481</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>105</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1831,13 +1831,13 @@
         <v>56</v>
       </c>
       <c r="K37">
-        <v>0.1802884615384615</v>
+        <v>0.1129753914988814</v>
       </c>
       <c r="L37">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="M37">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>341</v>
+        <v>793</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1857,25 +1857,25 @@
         <v>57</v>
       </c>
       <c r="K38">
-        <v>0.1209302325581395</v>
+        <v>0.1042944785276074</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>189</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1883,25 +1883,25 @@
         <v>58</v>
       </c>
       <c r="K39">
-        <v>0.1099887766554433</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L39">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="M39">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="N39">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O39">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>793</v>
+        <v>820</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1909,13 +1909,13 @@
         <v>59</v>
       </c>
       <c r="K40">
-        <v>0.09799554565701558</v>
+        <v>0.08796296296296297</v>
       </c>
       <c r="L40">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="M40">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="N40">
         <v>0.97</v>
@@ -1927,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>810</v>
+        <v>591</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1935,25 +1935,25 @@
         <v>60</v>
       </c>
       <c r="K41">
-        <v>0.09230769230769231</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N41">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O41">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>295</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1961,25 +1961,25 @@
         <v>61</v>
       </c>
       <c r="K42">
-        <v>0.08936825885978428</v>
+        <v>0.07621247113163972</v>
       </c>
       <c r="L42">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="M42">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="N42">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O42">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>591</v>
+        <v>800</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1987,25 +1987,25 @@
         <v>62</v>
       </c>
       <c r="K43">
-        <v>0.08247422680412371</v>
+        <v>0.06707317073170732</v>
       </c>
       <c r="L43">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="M43">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="N43">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O43">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>445</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2013,103 +2013,103 @@
         <v>63</v>
       </c>
       <c r="K44">
-        <v>0.07175925925925926</v>
+        <v>0.03842159916926272</v>
       </c>
       <c r="L44">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="M44">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="N44">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="O44">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>802</v>
+        <v>926</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="K45">
-        <v>0.06992022524636321</v>
+        <v>0.03341985723556132</v>
       </c>
       <c r="L45">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="M45">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="N45">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="O45">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>1982</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K46">
-        <v>0.03841145833333334</v>
+        <v>0.02329974811083124</v>
       </c>
       <c r="L46">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="M46">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="N46">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="O46">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>2954</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="K47">
-        <v>0.0208005042546486</v>
+        <v>0.02158894645941278</v>
       </c>
       <c r="L47">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="M47">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="N47">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="O47">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>3107</v>
+        <v>1133</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,169 +43,190 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>prices</t>
@@ -566,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,7 +595,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
         <v>30</v>
@@ -635,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -685,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7431506849315068</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,37 +806,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6842105263157895</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C6">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K6">
-        <v>0.8392857142857143</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4563106796116505</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C7">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,22 +871,22 @@
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.8235294117647058</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4161073825503356</v>
+        <v>0.4457364341085271</v>
       </c>
       <c r="C8">
-        <v>62</v>
+        <v>230</v>
       </c>
       <c r="D8">
-        <v>62</v>
+        <v>230</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>87</v>
+        <v>286</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8203125</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="L8">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="M8">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -935,13 +956,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3466666666666667</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8170731707317073</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +1006,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3333333333333333</v>
+        <v>0.4093959731543624</v>
       </c>
       <c r="C10">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +1024,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8166666666666667</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L10">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.8125</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1106,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.257936507936508</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C12">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1124,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1581769436997319</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>59</v>
       </c>
-      <c r="D13">
-        <v>59</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>314</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.8028169014084507</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L13">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,37 +1206,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008322237017310254</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D14">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="E14">
-        <v>0.8</v>
+        <v>0.02</v>
       </c>
       <c r="F14">
-        <v>0.2</v>
+        <v>0.98</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>2979</v>
+        <v>124</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.7735849056603774</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,37 +1256,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.007994883274704189</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="D15">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="E15">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>3102</v>
+        <v>183</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.73125</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L15">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,21 +1298,45 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.1742627345844504</v>
+      </c>
+      <c r="C16">
+        <v>65</v>
+      </c>
+      <c r="D16">
+        <v>65</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>308</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K16">
-        <v>0.7142857142857143</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1303,21 +1348,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K17">
-        <v>0.7021276595744681</v>
+        <v>0.7375</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1329,21 +1374,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>0.6914893617021277</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L18">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1355,21 +1400,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>0.68</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1381,21 +1426,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>0.6449086161879896</v>
+        <v>0.7</v>
       </c>
       <c r="L20">
-        <v>247</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>247</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1407,21 +1452,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>136</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>0.5970588235294118</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L21">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1433,21 +1478,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>137</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>0.5833333333333334</v>
+        <v>0.6240208877284595</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1459,21 +1504,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>0.5730337078651685</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1485,21 +1530,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>0.5555555555555556</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1511,21 +1556,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>0.5491525423728814</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L25">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1537,21 +1582,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>133</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>0.5384615384615384</v>
+        <v>0.5617647058823529</v>
       </c>
       <c r="L26">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="M26">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1563,21 +1608,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>36</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>0.5230125523012552</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L27">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="M27">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1589,21 +1634,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>0.5068493150684932</v>
+        <v>0.53125</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1615,21 +1660,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>0.421875</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1641,21 +1686,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>0.4153846153846154</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1667,21 +1712,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>0.4142857142857143</v>
+        <v>0.4937238493723849</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1693,21 +1738,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>41</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32">
-        <v>0.2125984251968504</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1719,47 +1764,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.1966426858513189</v>
+        <v>0.4</v>
       </c>
       <c r="L33">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="N33">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>335</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.1730769230769231</v>
+        <v>0.1778846153846154</v>
       </c>
       <c r="L34">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M34">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1771,21 +1816,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.1488372093023256</v>
+        <v>0.1746411483253588</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="M35">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1797,47 +1842,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>183</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.1448598130841121</v>
+        <v>0.1737089201877934</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.1129753914988814</v>
+        <v>0.172093023255814</v>
       </c>
       <c r="L37">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="M37">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1849,267 +1894,371 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>793</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.1042944785276074</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L38">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M38">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N38">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O38">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>292</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.08888888888888889</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="L39">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="M39">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="N39">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>820</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.08796296296296297</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="L40">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="M40">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>591</v>
+        <v>798</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.08247422680412371</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M41">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N41">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O41">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>445</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.07621247113163972</v>
+        <v>0.09242761692650334</v>
       </c>
       <c r="L42">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="M42">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="N42">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O42">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>800</v>
+        <v>815</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.06707317073170732</v>
+        <v>0.08796296296296297</v>
       </c>
       <c r="L43">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="M43">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="N43">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O43">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>1989</v>
+        <v>788</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K44">
-        <v>0.03842159916926272</v>
+        <v>0.08493664946034725</v>
       </c>
       <c r="L44">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="M44">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N44">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O44">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>926</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="K45">
-        <v>0.03341985723556132</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L45">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="M45">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="N45">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="O45">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>2979</v>
+        <v>594</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="K46">
-        <v>0.02329974811083124</v>
+        <v>0.08230452674897119</v>
       </c>
       <c r="L46">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="M46">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="N46">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>3102</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K47">
-        <v>0.02158894645941278</v>
+        <v>0.07163323782234957</v>
       </c>
       <c r="L47">
         <v>25</v>
       </c>
       <c r="M47">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K48">
+        <v>0.04404145077720207</v>
+      </c>
+      <c r="L48">
+        <v>136</v>
+      </c>
+      <c r="M48">
+        <v>155</v>
+      </c>
+      <c r="N48">
+        <v>0.88</v>
+      </c>
+      <c r="O48">
+        <v>0.12</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K49">
+        <v>0.04361370716510903</v>
+      </c>
+      <c r="L49">
+        <v>42</v>
+      </c>
+      <c r="M49">
+        <v>47</v>
+      </c>
+      <c r="N49">
         <v>0.89</v>
       </c>
-      <c r="O47">
+      <c r="O49">
         <v>0.11</v>
       </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>1133</v>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K50">
+        <v>0.02858040201005025</v>
+      </c>
+      <c r="L50">
+        <v>91</v>
+      </c>
+      <c r="M50">
+        <v>108</v>
+      </c>
+      <c r="N50">
+        <v>0.84</v>
+      </c>
+      <c r="O50">
+        <v>0.16</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K51">
+        <v>0.02162629757785467</v>
+      </c>
+      <c r="L51">
+        <v>25</v>
+      </c>
+      <c r="M51">
+        <v>30</v>
+      </c>
+      <c r="N51">
+        <v>0.83</v>
+      </c>
+      <c r="O51">
+        <v>0.17</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1131</v>
       </c>
     </row>
   </sheetData>
